--- a/3/5/2/3/Operaciones en pesos 1990 a 2021 - Trimestral.xlsx
+++ b/3/5/2/3/Operaciones en pesos 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Serie</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2929,6 +2932,23 @@
         <v>10.33</v>
       </c>
     </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>3.38</v>
+      </c>
+      <c r="C128">
+        <v>9.08</v>
+      </c>
+      <c r="D128">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E128">
+        <v>12.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Operaciones en pesos 1990 a 2021 - Trimestral.xlsx
+++ b/3/5/2/3/Operaciones en pesos 1990 a 2021 - Trimestral.xlsx
@@ -2937,16 +2937,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="C128">
-        <v>9.08</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D128">
-        <v>9.369999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E128">
-        <v>12.46</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>
